--- a/INTERSEMESTRAL 1/Modelado de Datos y ETL/SEMANA 4/PlantillaDiseñoETL - WWImporters.xlsx
+++ b/INTERSEMESTRAL 1/Modelado de Datos y ETL/SEMANA 4/PlantillaDiseñoETL - WWImporters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/U1037319/Desktop/INFORMACION/MAESTRIA-ANALITICA-INTELIGENCIA-DATOS/INTERSEMESTRAL 1/Modelado de Datos y ETL/SEMANA 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78610D9B-57C8-6F40-A8BF-22BDCBAB13F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F1D65E-5BA3-434E-8400-866A898E3CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3270,7 +3270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
